--- a/Transformed_Dataset/T_SI_2007.xlsx
+++ b/Transformed_Dataset/T_SI_2007.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahla\Desktop\ISSA Project\Transformed_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahla\Desktop\Sikkim-Rainfall-Prediction\Transformed_Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B517ED77-3142-48E6-9B6A-862C04B0BD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED2DA08-5E13-4345-AA66-2F47915B5CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="379">
   <si>
     <t>FID</t>
   </si>
@@ -1166,6 +1166,9 @@
   </si>
   <si>
     <t>Loc_10</t>
+  </si>
+  <si>
+    <t>Day</t>
   </si>
 </sst>
 </file>
@@ -1649,11 +1652,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2011,8 +2012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
-      <selection activeCell="L336" sqref="L336"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2022,1350 +2023,1350 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>366</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C1" t="s">
         <v>367</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>368</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>369</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>370</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>371</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>372</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>373</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>374</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>375</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>376</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>39083</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <f>A2+1</f>
+      <c r="A3" s="1">
+        <f t="shared" ref="A3:A66" si="0">A2+1</f>
         <v>39084</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <f>A3+1</f>
+      <c r="A4" s="1">
+        <f t="shared" si="0"/>
         <v>39085</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <f>A4+1</f>
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
         <v>39086</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <f>A5+1</f>
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
         <v>39087</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <f>A6+1</f>
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
         <v>39088</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <f>A7+1</f>
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
         <v>39089</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <f>A8+1</f>
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
         <v>39090</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <f>A9+1</f>
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
         <v>39091</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <f>A10+1</f>
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
         <v>39092</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
-        <f>A11+1</f>
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
         <v>39093</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <f>A12+1</f>
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
         <v>39094</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
-        <f>A13+1</f>
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
         <v>39095</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1</v>
-      </c>
-      <c r="L14" s="2">
-        <v>1</v>
-      </c>
-      <c r="M14" s="2">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
-        <f>A14+1</f>
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
         <v>39096</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>2</v>
-      </c>
-      <c r="G15" s="2">
-        <v>2</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2">
-        <v>2</v>
-      </c>
-      <c r="J15" s="2">
-        <v>2</v>
-      </c>
-      <c r="K15" s="2">
-        <v>2</v>
-      </c>
-      <c r="L15" s="2">
-        <v>2</v>
-      </c>
-      <c r="M15" s="2">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
-        <f>A15+1</f>
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
         <v>39097</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>4</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
         <v>3</v>
       </c>
-      <c r="H16" s="2">
-        <v>2</v>
-      </c>
-      <c r="I16" s="2">
-        <v>4</v>
-      </c>
-      <c r="J16" s="2">
-        <v>4</v>
-      </c>
-      <c r="K16" s="2">
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
         <v>3</v>
       </c>
-      <c r="L16" s="2">
-        <v>4</v>
-      </c>
-      <c r="M16" s="2">
+      <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
-        <f>A16+1</f>
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
         <v>39098</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>2</v>
-      </c>
-      <c r="G17" s="2">
-        <v>2</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2">
-        <v>2</v>
-      </c>
-      <c r="J17" s="2">
-        <v>2</v>
-      </c>
-      <c r="K17" s="2">
-        <v>2</v>
-      </c>
-      <c r="L17" s="2">
-        <v>2</v>
-      </c>
-      <c r="M17" s="2">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
-        <f>A17+1</f>
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
         <v>39099</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
-        <f>A18+1</f>
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
         <v>39100</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
-        <f>A19+1</f>
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
         <v>39101</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
-        <f>A20+1</f>
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
         <v>39102</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
-        <f>A21+1</f>
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
         <v>39103</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0</v>
-      </c>
-      <c r="K22" s="2">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0</v>
-      </c>
-      <c r="M22" s="2">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
-        <f>A22+1</f>
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
         <v>39104</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="3">
-        <f>A23+1</f>
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
         <v>39105</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0</v>
-      </c>
-      <c r="K24" s="2">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2">
-        <v>0</v>
-      </c>
-      <c r="M24" s="2">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="3">
-        <f>A24+1</f>
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
         <v>39106</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0</v>
-      </c>
-      <c r="K25" s="2">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2">
-        <v>0</v>
-      </c>
-      <c r="M25" s="2">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
-        <f>A25+1</f>
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
         <v>39107</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="2">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0</v>
-      </c>
-      <c r="K26" s="2">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2">
-        <v>0</v>
-      </c>
-      <c r="M26" s="2">
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
-        <f>A26+1</f>
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
         <v>39108</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="2">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0</v>
-      </c>
-      <c r="K27" s="2">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0</v>
-      </c>
-      <c r="M27" s="2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="3">
-        <f>A27+1</f>
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
         <v>39109</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="2">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2">
-        <v>0</v>
-      </c>
-      <c r="K28" s="2">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2">
-        <v>0</v>
-      </c>
-      <c r="M28" s="2">
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="3">
-        <f>A28+1</f>
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
         <v>39110</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="2">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2">
-        <v>0</v>
-      </c>
-      <c r="K29" s="2">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2">
-        <v>0</v>
-      </c>
-      <c r="M29" s="2">
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="3">
-        <f>A29+1</f>
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
         <v>39111</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="2">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2">
-        <v>0</v>
-      </c>
-      <c r="K30" s="2">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2">
-        <v>0</v>
-      </c>
-      <c r="M30" s="2">
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="3">
-        <f>A30+1</f>
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
         <v>39112</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="2">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2">
-        <v>0</v>
-      </c>
-      <c r="K31" s="2">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2">
-        <v>0</v>
-      </c>
-      <c r="M31" s="2">
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="3">
-        <f>A31+1</f>
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
         <v>39113</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0</v>
-      </c>
-      <c r="G32" s="2">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0</v>
-      </c>
-      <c r="I32" s="2">
-        <v>0</v>
-      </c>
-      <c r="J32" s="2">
-        <v>0</v>
-      </c>
-      <c r="K32" s="2">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2">
-        <v>0</v>
-      </c>
-      <c r="M32" s="2">
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <f>A32+1</f>
+        <f t="shared" si="0"/>
         <v>39114</v>
       </c>
       <c r="B33" t="s">
@@ -3407,7 +3408,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <f>A33+1</f>
+        <f t="shared" si="0"/>
         <v>39115</v>
       </c>
       <c r="B34" t="s">
@@ -3449,7 +3450,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <f>A34+1</f>
+        <f t="shared" si="0"/>
         <v>39116</v>
       </c>
       <c r="B35" t="s">
@@ -3491,7 +3492,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <f>A35+1</f>
+        <f t="shared" si="0"/>
         <v>39117</v>
       </c>
       <c r="B36" t="s">
@@ -3533,7 +3534,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <f>A36+1</f>
+        <f t="shared" si="0"/>
         <v>39118</v>
       </c>
       <c r="B37" t="s">
@@ -3575,7 +3576,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <f>A37+1</f>
+        <f t="shared" si="0"/>
         <v>39119</v>
       </c>
       <c r="B38" t="s">
@@ -3617,7 +3618,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <f>A38+1</f>
+        <f t="shared" si="0"/>
         <v>39120</v>
       </c>
       <c r="B39" t="s">
@@ -3659,7 +3660,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <f>A39+1</f>
+        <f t="shared" si="0"/>
         <v>39121</v>
       </c>
       <c r="B40" t="s">
@@ -3701,7 +3702,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <f>A40+1</f>
+        <f t="shared" si="0"/>
         <v>39122</v>
       </c>
       <c r="B41" t="s">
@@ -3743,7 +3744,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <f>A41+1</f>
+        <f t="shared" si="0"/>
         <v>39123</v>
       </c>
       <c r="B42" t="s">
@@ -3785,7 +3786,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <f>A42+1</f>
+        <f t="shared" si="0"/>
         <v>39124</v>
       </c>
       <c r="B43" t="s">
@@ -3827,7 +3828,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <f>A43+1</f>
+        <f t="shared" si="0"/>
         <v>39125</v>
       </c>
       <c r="B44" t="s">
@@ -3869,7 +3870,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <f>A44+1</f>
+        <f t="shared" si="0"/>
         <v>39126</v>
       </c>
       <c r="B45" t="s">
@@ -3911,7 +3912,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <f>A45+1</f>
+        <f t="shared" si="0"/>
         <v>39127</v>
       </c>
       <c r="B46" t="s">
@@ -3953,7 +3954,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <f>A46+1</f>
+        <f t="shared" si="0"/>
         <v>39128</v>
       </c>
       <c r="B47" t="s">
@@ -3995,7 +3996,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <f>A47+1</f>
+        <f t="shared" si="0"/>
         <v>39129</v>
       </c>
       <c r="B48" t="s">
@@ -4037,7 +4038,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <f>A48+1</f>
+        <f t="shared" si="0"/>
         <v>39130</v>
       </c>
       <c r="B49" t="s">
@@ -4079,7 +4080,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <f>A49+1</f>
+        <f t="shared" si="0"/>
         <v>39131</v>
       </c>
       <c r="B50" t="s">
@@ -4121,7 +4122,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <f>A50+1</f>
+        <f t="shared" si="0"/>
         <v>39132</v>
       </c>
       <c r="B51" t="s">
@@ -4163,7 +4164,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <f>A51+1</f>
+        <f t="shared" si="0"/>
         <v>39133</v>
       </c>
       <c r="B52" t="s">
@@ -4205,7 +4206,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <f>A52+1</f>
+        <f t="shared" si="0"/>
         <v>39134</v>
       </c>
       <c r="B53" t="s">
@@ -4247,7 +4248,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <f>A53+1</f>
+        <f t="shared" si="0"/>
         <v>39135</v>
       </c>
       <c r="B54" t="s">
@@ -4289,7 +4290,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <f>A54+1</f>
+        <f t="shared" si="0"/>
         <v>39136</v>
       </c>
       <c r="B55" t="s">
@@ -4331,7 +4332,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <f>A55+1</f>
+        <f t="shared" si="0"/>
         <v>39137</v>
       </c>
       <c r="B56" t="s">
@@ -4373,7 +4374,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <f>A56+1</f>
+        <f t="shared" si="0"/>
         <v>39138</v>
       </c>
       <c r="B57" t="s">
@@ -4415,7 +4416,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <f>A57+1</f>
+        <f t="shared" si="0"/>
         <v>39139</v>
       </c>
       <c r="B58" t="s">
@@ -4457,7 +4458,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <f>A58+1</f>
+        <f t="shared" si="0"/>
         <v>39140</v>
       </c>
       <c r="B59" t="s">
@@ -4499,7 +4500,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <f>A59+1</f>
+        <f t="shared" si="0"/>
         <v>39141</v>
       </c>
       <c r="B60" t="s">
@@ -4541,7 +4542,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <f>A60+1</f>
+        <f t="shared" si="0"/>
         <v>39142</v>
       </c>
       <c r="B61" t="s">
@@ -4583,7 +4584,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <f>A61+1</f>
+        <f t="shared" si="0"/>
         <v>39143</v>
       </c>
       <c r="B62" t="s">
@@ -4625,7 +4626,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <f>A62+1</f>
+        <f t="shared" si="0"/>
         <v>39144</v>
       </c>
       <c r="B63" t="s">
@@ -4667,7 +4668,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <f>A63+1</f>
+        <f t="shared" si="0"/>
         <v>39145</v>
       </c>
       <c r="B64" t="s">
@@ -4709,7 +4710,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <f>A64+1</f>
+        <f t="shared" si="0"/>
         <v>39146</v>
       </c>
       <c r="B65" t="s">
@@ -4751,7 +4752,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <f>A65+1</f>
+        <f t="shared" si="0"/>
         <v>39147</v>
       </c>
       <c r="B66" t="s">
@@ -4793,7 +4794,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <f>A66+1</f>
+        <f t="shared" ref="A67:A130" si="1">A66+1</f>
         <v>39148</v>
       </c>
       <c r="B67" t="s">
@@ -4835,7 +4836,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <f>A67+1</f>
+        <f t="shared" si="1"/>
         <v>39149</v>
       </c>
       <c r="B68" t="s">
@@ -4877,7 +4878,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <f>A68+1</f>
+        <f t="shared" si="1"/>
         <v>39150</v>
       </c>
       <c r="B69" t="s">
@@ -4919,7 +4920,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <f>A69+1</f>
+        <f t="shared" si="1"/>
         <v>39151</v>
       </c>
       <c r="B70" t="s">
@@ -4961,7 +4962,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <f>A70+1</f>
+        <f t="shared" si="1"/>
         <v>39152</v>
       </c>
       <c r="B71" t="s">
@@ -5003,7 +5004,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <f>A71+1</f>
+        <f t="shared" si="1"/>
         <v>39153</v>
       </c>
       <c r="B72" t="s">
@@ -5045,7 +5046,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <f>A72+1</f>
+        <f t="shared" si="1"/>
         <v>39154</v>
       </c>
       <c r="B73" t="s">
@@ -5087,7 +5088,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <f>A73+1</f>
+        <f t="shared" si="1"/>
         <v>39155</v>
       </c>
       <c r="B74" t="s">
@@ -5129,7 +5130,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <f>A74+1</f>
+        <f t="shared" si="1"/>
         <v>39156</v>
       </c>
       <c r="B75" t="s">
@@ -5171,7 +5172,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <f>A75+1</f>
+        <f t="shared" si="1"/>
         <v>39157</v>
       </c>
       <c r="B76" t="s">
@@ -5213,7 +5214,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <f>A76+1</f>
+        <f t="shared" si="1"/>
         <v>39158</v>
       </c>
       <c r="B77" t="s">
@@ -5255,7 +5256,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <f>A77+1</f>
+        <f t="shared" si="1"/>
         <v>39159</v>
       </c>
       <c r="B78" t="s">
@@ -5297,7 +5298,7 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <f>A78+1</f>
+        <f t="shared" si="1"/>
         <v>39160</v>
       </c>
       <c r="B79" t="s">
@@ -5339,7 +5340,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <f>A79+1</f>
+        <f t="shared" si="1"/>
         <v>39161</v>
       </c>
       <c r="B80" t="s">
@@ -5381,7 +5382,7 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <f>A80+1</f>
+        <f t="shared" si="1"/>
         <v>39162</v>
       </c>
       <c r="B81" t="s">
@@ -5423,7 +5424,7 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <f>A81+1</f>
+        <f t="shared" si="1"/>
         <v>39163</v>
       </c>
       <c r="B82" t="s">
@@ -5465,7 +5466,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <f>A82+1</f>
+        <f t="shared" si="1"/>
         <v>39164</v>
       </c>
       <c r="B83" t="s">
@@ -5507,7 +5508,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <f>A83+1</f>
+        <f t="shared" si="1"/>
         <v>39165</v>
       </c>
       <c r="B84" t="s">
@@ -5549,7 +5550,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <f>A84+1</f>
+        <f t="shared" si="1"/>
         <v>39166</v>
       </c>
       <c r="B85" t="s">
@@ -5591,7 +5592,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <f>A85+1</f>
+        <f t="shared" si="1"/>
         <v>39167</v>
       </c>
       <c r="B86" t="s">
@@ -5633,7 +5634,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <f>A86+1</f>
+        <f t="shared" si="1"/>
         <v>39168</v>
       </c>
       <c r="B87" t="s">
@@ -5675,7 +5676,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <f>A87+1</f>
+        <f t="shared" si="1"/>
         <v>39169</v>
       </c>
       <c r="B88" t="s">
@@ -5717,7 +5718,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <f>A88+1</f>
+        <f t="shared" si="1"/>
         <v>39170</v>
       </c>
       <c r="B89" t="s">
@@ -5759,7 +5760,7 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <f>A89+1</f>
+        <f t="shared" si="1"/>
         <v>39171</v>
       </c>
       <c r="B90" t="s">
@@ -5801,7 +5802,7 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <f>A90+1</f>
+        <f t="shared" si="1"/>
         <v>39172</v>
       </c>
       <c r="B91" t="s">
@@ -5843,7 +5844,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <f>A91+1</f>
+        <f t="shared" si="1"/>
         <v>39173</v>
       </c>
       <c r="B92" t="s">
@@ -5885,7 +5886,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <f>A92+1</f>
+        <f t="shared" si="1"/>
         <v>39174</v>
       </c>
       <c r="B93" t="s">
@@ -5927,7 +5928,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <f>A93+1</f>
+        <f t="shared" si="1"/>
         <v>39175</v>
       </c>
       <c r="B94" t="s">
@@ -5969,7 +5970,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <f>A94+1</f>
+        <f t="shared" si="1"/>
         <v>39176</v>
       </c>
       <c r="B95" t="s">
@@ -6011,7 +6012,7 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <f>A95+1</f>
+        <f t="shared" si="1"/>
         <v>39177</v>
       </c>
       <c r="B96" t="s">
@@ -6053,7 +6054,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <f>A96+1</f>
+        <f t="shared" si="1"/>
         <v>39178</v>
       </c>
       <c r="B97" t="s">
@@ -6095,7 +6096,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <f>A97+1</f>
+        <f t="shared" si="1"/>
         <v>39179</v>
       </c>
       <c r="B98" t="s">
@@ -6137,7 +6138,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <f>A98+1</f>
+        <f t="shared" si="1"/>
         <v>39180</v>
       </c>
       <c r="B99" t="s">
@@ -6179,7 +6180,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <f>A99+1</f>
+        <f t="shared" si="1"/>
         <v>39181</v>
       </c>
       <c r="B100" t="s">
@@ -6221,7 +6222,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <f>A100+1</f>
+        <f t="shared" si="1"/>
         <v>39182</v>
       </c>
       <c r="B101" t="s">
@@ -6263,7 +6264,7 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <f>A101+1</f>
+        <f t="shared" si="1"/>
         <v>39183</v>
       </c>
       <c r="B102" t="s">
@@ -6305,7 +6306,7 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <f>A102+1</f>
+        <f t="shared" si="1"/>
         <v>39184</v>
       </c>
       <c r="B103" t="s">
@@ -6347,7 +6348,7 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <f>A103+1</f>
+        <f t="shared" si="1"/>
         <v>39185</v>
       </c>
       <c r="B104" t="s">
@@ -6389,7 +6390,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <f>A104+1</f>
+        <f t="shared" si="1"/>
         <v>39186</v>
       </c>
       <c r="B105" t="s">
@@ -6431,7 +6432,7 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <f>A105+1</f>
+        <f t="shared" si="1"/>
         <v>39187</v>
       </c>
       <c r="B106" t="s">
@@ -6473,7 +6474,7 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <f>A106+1</f>
+        <f t="shared" si="1"/>
         <v>39188</v>
       </c>
       <c r="B107" t="s">
@@ -6515,7 +6516,7 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <f>A107+1</f>
+        <f t="shared" si="1"/>
         <v>39189</v>
       </c>
       <c r="B108" t="s">
@@ -6557,7 +6558,7 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
-        <f>A108+1</f>
+        <f t="shared" si="1"/>
         <v>39190</v>
       </c>
       <c r="B109" t="s">
@@ -6599,7 +6600,7 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
-        <f>A109+1</f>
+        <f t="shared" si="1"/>
         <v>39191</v>
       </c>
       <c r="B110" t="s">
@@ -6641,7 +6642,7 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
-        <f>A110+1</f>
+        <f t="shared" si="1"/>
         <v>39192</v>
       </c>
       <c r="B111" t="s">
@@ -6683,7 +6684,7 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
-        <f>A111+1</f>
+        <f t="shared" si="1"/>
         <v>39193</v>
       </c>
       <c r="B112" t="s">
@@ -6725,7 +6726,7 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
-        <f>A112+1</f>
+        <f t="shared" si="1"/>
         <v>39194</v>
       </c>
       <c r="B113" t="s">
@@ -6767,7 +6768,7 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
-        <f>A113+1</f>
+        <f t="shared" si="1"/>
         <v>39195</v>
       </c>
       <c r="B114" t="s">
@@ -6809,7 +6810,7 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <f>A114+1</f>
+        <f t="shared" si="1"/>
         <v>39196</v>
       </c>
       <c r="B115" t="s">
@@ -6851,7 +6852,7 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
-        <f>A115+1</f>
+        <f t="shared" si="1"/>
         <v>39197</v>
       </c>
       <c r="B116" t="s">
@@ -6893,7 +6894,7 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
-        <f>A116+1</f>
+        <f t="shared" si="1"/>
         <v>39198</v>
       </c>
       <c r="B117" t="s">
@@ -6935,7 +6936,7 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
-        <f>A117+1</f>
+        <f t="shared" si="1"/>
         <v>39199</v>
       </c>
       <c r="B118" t="s">
@@ -6977,7 +6978,7 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
-        <f>A118+1</f>
+        <f t="shared" si="1"/>
         <v>39200</v>
       </c>
       <c r="B119" t="s">
@@ -7019,7 +7020,7 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
-        <f>A119+1</f>
+        <f t="shared" si="1"/>
         <v>39201</v>
       </c>
       <c r="B120" t="s">
@@ -7061,7 +7062,7 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
-        <f>A120+1</f>
+        <f t="shared" si="1"/>
         <v>39202</v>
       </c>
       <c r="B121" t="s">
@@ -7103,7 +7104,7 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
-        <f>A121+1</f>
+        <f t="shared" si="1"/>
         <v>39203</v>
       </c>
       <c r="B122" t="s">
@@ -7145,7 +7146,7 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
-        <f>A122+1</f>
+        <f t="shared" si="1"/>
         <v>39204</v>
       </c>
       <c r="B123" t="s">
@@ -7187,7 +7188,7 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
-        <f>A123+1</f>
+        <f t="shared" si="1"/>
         <v>39205</v>
       </c>
       <c r="B124" t="s">
@@ -7229,7 +7230,7 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
-        <f>A124+1</f>
+        <f t="shared" si="1"/>
         <v>39206</v>
       </c>
       <c r="B125" t="s">
@@ -7271,7 +7272,7 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
-        <f>A125+1</f>
+        <f t="shared" si="1"/>
         <v>39207</v>
       </c>
       <c r="B126" t="s">
@@ -7313,7 +7314,7 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
-        <f>A126+1</f>
+        <f t="shared" si="1"/>
         <v>39208</v>
       </c>
       <c r="B127" t="s">
@@ -7355,7 +7356,7 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
-        <f>A127+1</f>
+        <f t="shared" si="1"/>
         <v>39209</v>
       </c>
       <c r="B128" t="s">
@@ -7397,7 +7398,7 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
-        <f>A128+1</f>
+        <f t="shared" si="1"/>
         <v>39210</v>
       </c>
       <c r="B129" t="s">
@@ -7439,7 +7440,7 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
-        <f>A129+1</f>
+        <f t="shared" si="1"/>
         <v>39211</v>
       </c>
       <c r="B130" t="s">
@@ -7481,7 +7482,7 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
-        <f>A130+1</f>
+        <f t="shared" ref="A131:A194" si="2">A130+1</f>
         <v>39212</v>
       </c>
       <c r="B131" t="s">
@@ -7523,7 +7524,7 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
-        <f>A131+1</f>
+        <f t="shared" si="2"/>
         <v>39213</v>
       </c>
       <c r="B132" t="s">
@@ -7565,7 +7566,7 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
-        <f>A132+1</f>
+        <f t="shared" si="2"/>
         <v>39214</v>
       </c>
       <c r="B133" t="s">
@@ -7607,7 +7608,7 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
-        <f>A133+1</f>
+        <f t="shared" si="2"/>
         <v>39215</v>
       </c>
       <c r="B134" t="s">
@@ -7649,7 +7650,7 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
-        <f>A134+1</f>
+        <f t="shared" si="2"/>
         <v>39216</v>
       </c>
       <c r="B135" t="s">
@@ -7691,7 +7692,7 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
-        <f>A135+1</f>
+        <f t="shared" si="2"/>
         <v>39217</v>
       </c>
       <c r="B136" t="s">
@@ -7733,7 +7734,7 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
-        <f>A136+1</f>
+        <f t="shared" si="2"/>
         <v>39218</v>
       </c>
       <c r="B137" t="s">
@@ -7775,7 +7776,7 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
-        <f>A137+1</f>
+        <f t="shared" si="2"/>
         <v>39219</v>
       </c>
       <c r="B138" t="s">
@@ -7817,7 +7818,7 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
-        <f>A138+1</f>
+        <f t="shared" si="2"/>
         <v>39220</v>
       </c>
       <c r="B139" t="s">
@@ -7859,7 +7860,7 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
-        <f>A139+1</f>
+        <f t="shared" si="2"/>
         <v>39221</v>
       </c>
       <c r="B140" t="s">
@@ -7901,7 +7902,7 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
-        <f>A140+1</f>
+        <f t="shared" si="2"/>
         <v>39222</v>
       </c>
       <c r="B141" t="s">
@@ -7943,7 +7944,7 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
-        <f>A141+1</f>
+        <f t="shared" si="2"/>
         <v>39223</v>
       </c>
       <c r="B142" t="s">
@@ -7985,7 +7986,7 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
-        <f>A142+1</f>
+        <f t="shared" si="2"/>
         <v>39224</v>
       </c>
       <c r="B143" t="s">
@@ -8027,7 +8028,7 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
-        <f>A143+1</f>
+        <f t="shared" si="2"/>
         <v>39225</v>
       </c>
       <c r="B144" t="s">
@@ -8069,7 +8070,7 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
-        <f>A144+1</f>
+        <f t="shared" si="2"/>
         <v>39226</v>
       </c>
       <c r="B145" t="s">
@@ -8111,7 +8112,7 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
-        <f>A145+1</f>
+        <f t="shared" si="2"/>
         <v>39227</v>
       </c>
       <c r="B146" t="s">
@@ -8153,7 +8154,7 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
-        <f>A146+1</f>
+        <f t="shared" si="2"/>
         <v>39228</v>
       </c>
       <c r="B147" t="s">
@@ -8195,7 +8196,7 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
-        <f>A147+1</f>
+        <f t="shared" si="2"/>
         <v>39229</v>
       </c>
       <c r="B148" t="s">
@@ -8237,7 +8238,7 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
-        <f>A148+1</f>
+        <f t="shared" si="2"/>
         <v>39230</v>
       </c>
       <c r="B149" t="s">
@@ -8279,7 +8280,7 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
-        <f>A149+1</f>
+        <f t="shared" si="2"/>
         <v>39231</v>
       </c>
       <c r="B150" t="s">
@@ -8321,7 +8322,7 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
-        <f>A150+1</f>
+        <f t="shared" si="2"/>
         <v>39232</v>
       </c>
       <c r="B151" t="s">
@@ -8363,7 +8364,7 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
-        <f>A151+1</f>
+        <f t="shared" si="2"/>
         <v>39233</v>
       </c>
       <c r="B152" t="s">
@@ -8405,7 +8406,7 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
-        <f>A152+1</f>
+        <f t="shared" si="2"/>
         <v>39234</v>
       </c>
       <c r="B153" t="s">
@@ -8447,7 +8448,7 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
-        <f>A153+1</f>
+        <f t="shared" si="2"/>
         <v>39235</v>
       </c>
       <c r="B154" t="s">
@@ -8489,7 +8490,7 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
-        <f>A154+1</f>
+        <f t="shared" si="2"/>
         <v>39236</v>
       </c>
       <c r="B155" t="s">
@@ -8531,7 +8532,7 @@
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
-        <f>A155+1</f>
+        <f t="shared" si="2"/>
         <v>39237</v>
       </c>
       <c r="B156" t="s">
@@ -8573,7 +8574,7 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
-        <f>A156+1</f>
+        <f t="shared" si="2"/>
         <v>39238</v>
       </c>
       <c r="B157" t="s">
@@ -8615,7 +8616,7 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
-        <f>A157+1</f>
+        <f t="shared" si="2"/>
         <v>39239</v>
       </c>
       <c r="B158" t="s">
@@ -8657,7 +8658,7 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
-        <f>A158+1</f>
+        <f t="shared" si="2"/>
         <v>39240</v>
       </c>
       <c r="B159" t="s">
@@ -8699,7 +8700,7 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
-        <f>A159+1</f>
+        <f t="shared" si="2"/>
         <v>39241</v>
       </c>
       <c r="B160" t="s">
@@ -8741,7 +8742,7 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
-        <f>A160+1</f>
+        <f t="shared" si="2"/>
         <v>39242</v>
       </c>
       <c r="B161" t="s">
@@ -8783,7 +8784,7 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
-        <f>A161+1</f>
+        <f t="shared" si="2"/>
         <v>39243</v>
       </c>
       <c r="B162" t="s">
@@ -8825,7 +8826,7 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
-        <f>A162+1</f>
+        <f t="shared" si="2"/>
         <v>39244</v>
       </c>
       <c r="B163" t="s">
@@ -8867,7 +8868,7 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
-        <f>A163+1</f>
+        <f t="shared" si="2"/>
         <v>39245</v>
       </c>
       <c r="B164" t="s">
@@ -8909,7 +8910,7 @@
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
-        <f>A164+1</f>
+        <f t="shared" si="2"/>
         <v>39246</v>
       </c>
       <c r="B165" t="s">
@@ -8951,7 +8952,7 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
-        <f>A165+1</f>
+        <f t="shared" si="2"/>
         <v>39247</v>
       </c>
       <c r="B166" t="s">
@@ -8993,7 +8994,7 @@
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
-        <f>A166+1</f>
+        <f t="shared" si="2"/>
         <v>39248</v>
       </c>
       <c r="B167" t="s">
@@ -9035,7 +9036,7 @@
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
-        <f>A167+1</f>
+        <f t="shared" si="2"/>
         <v>39249</v>
       </c>
       <c r="B168" t="s">
@@ -9077,7 +9078,7 @@
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
-        <f>A168+1</f>
+        <f t="shared" si="2"/>
         <v>39250</v>
       </c>
       <c r="B169" t="s">
@@ -9119,7 +9120,7 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
-        <f>A169+1</f>
+        <f t="shared" si="2"/>
         <v>39251</v>
       </c>
       <c r="B170" t="s">
@@ -9161,7 +9162,7 @@
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
-        <f>A170+1</f>
+        <f t="shared" si="2"/>
         <v>39252</v>
       </c>
       <c r="B171" t="s">
@@ -9203,7 +9204,7 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
-        <f>A171+1</f>
+        <f t="shared" si="2"/>
         <v>39253</v>
       </c>
       <c r="B172" t="s">
@@ -9245,7 +9246,7 @@
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
-        <f>A172+1</f>
+        <f t="shared" si="2"/>
         <v>39254</v>
       </c>
       <c r="B173" t="s">
@@ -9287,7 +9288,7 @@
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
-        <f>A173+1</f>
+        <f t="shared" si="2"/>
         <v>39255</v>
       </c>
       <c r="B174" t="s">
@@ -9329,7 +9330,7 @@
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
-        <f>A174+1</f>
+        <f t="shared" si="2"/>
         <v>39256</v>
       </c>
       <c r="B175" t="s">
@@ -9371,7 +9372,7 @@
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
-        <f>A175+1</f>
+        <f t="shared" si="2"/>
         <v>39257</v>
       </c>
       <c r="B176" t="s">
@@ -9413,7 +9414,7 @@
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
-        <f>A176+1</f>
+        <f t="shared" si="2"/>
         <v>39258</v>
       </c>
       <c r="B177" t="s">
@@ -9455,7 +9456,7 @@
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
-        <f>A177+1</f>
+        <f t="shared" si="2"/>
         <v>39259</v>
       </c>
       <c r="B178" t="s">
@@ -9497,7 +9498,7 @@
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
-        <f>A178+1</f>
+        <f t="shared" si="2"/>
         <v>39260</v>
       </c>
       <c r="B179" t="s">
@@ -9539,7 +9540,7 @@
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
-        <f>A179+1</f>
+        <f t="shared" si="2"/>
         <v>39261</v>
       </c>
       <c r="B180" t="s">
@@ -9581,7 +9582,7 @@
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
-        <f>A180+1</f>
+        <f t="shared" si="2"/>
         <v>39262</v>
       </c>
       <c r="B181" t="s">
@@ -9623,7 +9624,7 @@
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
-        <f>A181+1</f>
+        <f t="shared" si="2"/>
         <v>39263</v>
       </c>
       <c r="B182" t="s">
@@ -9665,7 +9666,7 @@
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
-        <f>A182+1</f>
+        <f t="shared" si="2"/>
         <v>39264</v>
       </c>
       <c r="B183" t="s">
@@ -9707,7 +9708,7 @@
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
-        <f>A183+1</f>
+        <f t="shared" si="2"/>
         <v>39265</v>
       </c>
       <c r="B184" t="s">
@@ -9749,7 +9750,7 @@
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
-        <f>A184+1</f>
+        <f t="shared" si="2"/>
         <v>39266</v>
       </c>
       <c r="B185" t="s">
@@ -9791,7 +9792,7 @@
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
-        <f>A185+1</f>
+        <f t="shared" si="2"/>
         <v>39267</v>
       </c>
       <c r="B186" t="s">
@@ -9833,7 +9834,7 @@
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
-        <f>A186+1</f>
+        <f t="shared" si="2"/>
         <v>39268</v>
       </c>
       <c r="B187" t="s">
@@ -9875,7 +9876,7 @@
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
-        <f>A187+1</f>
+        <f t="shared" si="2"/>
         <v>39269</v>
       </c>
       <c r="B188" t="s">
@@ -9917,7 +9918,7 @@
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
-        <f>A188+1</f>
+        <f t="shared" si="2"/>
         <v>39270</v>
       </c>
       <c r="B189" t="s">
@@ -9959,7 +9960,7 @@
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
-        <f>A189+1</f>
+        <f t="shared" si="2"/>
         <v>39271</v>
       </c>
       <c r="B190" t="s">
@@ -10001,7 +10002,7 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
-        <f>A190+1</f>
+        <f t="shared" si="2"/>
         <v>39272</v>
       </c>
       <c r="B191" t="s">
@@ -10043,7 +10044,7 @@
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
-        <f>A191+1</f>
+        <f t="shared" si="2"/>
         <v>39273</v>
       </c>
       <c r="B192" t="s">
@@ -10085,7 +10086,7 @@
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
-        <f>A192+1</f>
+        <f t="shared" si="2"/>
         <v>39274</v>
       </c>
       <c r="B193" t="s">
@@ -10127,7 +10128,7 @@
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
-        <f>A193+1</f>
+        <f t="shared" si="2"/>
         <v>39275</v>
       </c>
       <c r="B194" t="s">
@@ -10169,7 +10170,7 @@
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
-        <f>A194+1</f>
+        <f t="shared" ref="A195:A258" si="3">A194+1</f>
         <v>39276</v>
       </c>
       <c r="B195" t="s">
@@ -10211,7 +10212,7 @@
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
-        <f>A195+1</f>
+        <f t="shared" si="3"/>
         <v>39277</v>
       </c>
       <c r="B196" t="s">
@@ -10253,7 +10254,7 @@
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
-        <f>A196+1</f>
+        <f t="shared" si="3"/>
         <v>39278</v>
       </c>
       <c r="B197" t="s">
@@ -10295,7 +10296,7 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
-        <f>A197+1</f>
+        <f t="shared" si="3"/>
         <v>39279</v>
       </c>
       <c r="B198" t="s">
@@ -10337,7 +10338,7 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
-        <f>A198+1</f>
+        <f t="shared" si="3"/>
         <v>39280</v>
       </c>
       <c r="B199" t="s">
@@ -10379,7 +10380,7 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
-        <f>A199+1</f>
+        <f t="shared" si="3"/>
         <v>39281</v>
       </c>
       <c r="B200" t="s">
@@ -10421,7 +10422,7 @@
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
-        <f>A200+1</f>
+        <f t="shared" si="3"/>
         <v>39282</v>
       </c>
       <c r="B201" t="s">
@@ -10463,7 +10464,7 @@
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
-        <f>A201+1</f>
+        <f t="shared" si="3"/>
         <v>39283</v>
       </c>
       <c r="B202" t="s">
@@ -10505,7 +10506,7 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
-        <f>A202+1</f>
+        <f t="shared" si="3"/>
         <v>39284</v>
       </c>
       <c r="B203" t="s">
@@ -10547,7 +10548,7 @@
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
-        <f>A203+1</f>
+        <f t="shared" si="3"/>
         <v>39285</v>
       </c>
       <c r="B204" t="s">
@@ -10589,7 +10590,7 @@
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
-        <f>A204+1</f>
+        <f t="shared" si="3"/>
         <v>39286</v>
       </c>
       <c r="B205" t="s">
@@ -10631,7 +10632,7 @@
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
-        <f>A205+1</f>
+        <f t="shared" si="3"/>
         <v>39287</v>
       </c>
       <c r="B206" t="s">
@@ -10673,7 +10674,7 @@
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
-        <f>A206+1</f>
+        <f t="shared" si="3"/>
         <v>39288</v>
       </c>
       <c r="B207" t="s">
@@ -10715,7 +10716,7 @@
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
-        <f>A207+1</f>
+        <f t="shared" si="3"/>
         <v>39289</v>
       </c>
       <c r="B208" t="s">
@@ -10757,7 +10758,7 @@
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
-        <f>A208+1</f>
+        <f t="shared" si="3"/>
         <v>39290</v>
       </c>
       <c r="B209" t="s">
@@ -10799,7 +10800,7 @@
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
-        <f>A209+1</f>
+        <f t="shared" si="3"/>
         <v>39291</v>
       </c>
       <c r="B210" t="s">
@@ -10841,7 +10842,7 @@
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
-        <f>A210+1</f>
+        <f t="shared" si="3"/>
         <v>39292</v>
       </c>
       <c r="B211" t="s">
@@ -10883,7 +10884,7 @@
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
-        <f>A211+1</f>
+        <f t="shared" si="3"/>
         <v>39293</v>
       </c>
       <c r="B212" t="s">
@@ -10925,7 +10926,7 @@
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
-        <f>A212+1</f>
+        <f t="shared" si="3"/>
         <v>39294</v>
       </c>
       <c r="B213" t="s">
@@ -10967,7 +10968,7 @@
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
-        <f>A213+1</f>
+        <f t="shared" si="3"/>
         <v>39295</v>
       </c>
       <c r="B214" t="s">
@@ -11009,7 +11010,7 @@
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
-        <f>A214+1</f>
+        <f t="shared" si="3"/>
         <v>39296</v>
       </c>
       <c r="B215" t="s">
@@ -11051,7 +11052,7 @@
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
-        <f>A215+1</f>
+        <f t="shared" si="3"/>
         <v>39297</v>
       </c>
       <c r="B216" t="s">
@@ -11093,7 +11094,7 @@
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
-        <f>A216+1</f>
+        <f t="shared" si="3"/>
         <v>39298</v>
       </c>
       <c r="B217" t="s">
@@ -11135,7 +11136,7 @@
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
-        <f>A217+1</f>
+        <f t="shared" si="3"/>
         <v>39299</v>
       </c>
       <c r="B218" t="s">
@@ -11177,7 +11178,7 @@
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
-        <f>A218+1</f>
+        <f t="shared" si="3"/>
         <v>39300</v>
       </c>
       <c r="B219" t="s">
@@ -11219,7 +11220,7 @@
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
-        <f>A219+1</f>
+        <f t="shared" si="3"/>
         <v>39301</v>
       </c>
       <c r="B220" t="s">
@@ -11261,7 +11262,7 @@
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
-        <f>A220+1</f>
+        <f t="shared" si="3"/>
         <v>39302</v>
       </c>
       <c r="B221" t="s">
@@ -11303,7 +11304,7 @@
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
-        <f>A221+1</f>
+        <f t="shared" si="3"/>
         <v>39303</v>
       </c>
       <c r="B222" t="s">
@@ -11345,7 +11346,7 @@
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
-        <f>A222+1</f>
+        <f t="shared" si="3"/>
         <v>39304</v>
       </c>
       <c r="B223" t="s">
@@ -11387,7 +11388,7 @@
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
-        <f>A223+1</f>
+        <f t="shared" si="3"/>
         <v>39305</v>
       </c>
       <c r="B224" t="s">
@@ -11429,7 +11430,7 @@
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
-        <f>A224+1</f>
+        <f t="shared" si="3"/>
         <v>39306</v>
       </c>
       <c r="B225" t="s">
@@ -11471,7 +11472,7 @@
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
-        <f>A225+1</f>
+        <f t="shared" si="3"/>
         <v>39307</v>
       </c>
       <c r="B226" t="s">
@@ -11513,7 +11514,7 @@
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
-        <f>A226+1</f>
+        <f t="shared" si="3"/>
         <v>39308</v>
       </c>
       <c r="B227" t="s">
@@ -11555,7 +11556,7 @@
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
-        <f>A227+1</f>
+        <f t="shared" si="3"/>
         <v>39309</v>
       </c>
       <c r="B228" t="s">
@@ -11597,7 +11598,7 @@
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
-        <f>A228+1</f>
+        <f t="shared" si="3"/>
         <v>39310</v>
       </c>
       <c r="B229" t="s">
@@ -11639,7 +11640,7 @@
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
-        <f>A229+1</f>
+        <f t="shared" si="3"/>
         <v>39311</v>
       </c>
       <c r="B230" t="s">
@@ -11681,7 +11682,7 @@
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
-        <f>A230+1</f>
+        <f t="shared" si="3"/>
         <v>39312</v>
       </c>
       <c r="B231" t="s">
@@ -11723,7 +11724,7 @@
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
-        <f>A231+1</f>
+        <f t="shared" si="3"/>
         <v>39313</v>
       </c>
       <c r="B232" t="s">
@@ -11765,7 +11766,7 @@
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
-        <f>A232+1</f>
+        <f t="shared" si="3"/>
         <v>39314</v>
       </c>
       <c r="B233" t="s">
@@ -11807,7 +11808,7 @@
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
-        <f>A233+1</f>
+        <f t="shared" si="3"/>
         <v>39315</v>
       </c>
       <c r="B234" t="s">
@@ -11849,7 +11850,7 @@
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
-        <f>A234+1</f>
+        <f t="shared" si="3"/>
         <v>39316</v>
       </c>
       <c r="B235" t="s">
@@ -11891,7 +11892,7 @@
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
-        <f>A235+1</f>
+        <f t="shared" si="3"/>
         <v>39317</v>
       </c>
       <c r="B236" t="s">
@@ -11933,7 +11934,7 @@
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
-        <f>A236+1</f>
+        <f t="shared" si="3"/>
         <v>39318</v>
       </c>
       <c r="B237" t="s">
@@ -11975,7 +11976,7 @@
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
-        <f>A237+1</f>
+        <f t="shared" si="3"/>
         <v>39319</v>
       </c>
       <c r="B238" t="s">
@@ -12017,7 +12018,7 @@
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
-        <f>A238+1</f>
+        <f t="shared" si="3"/>
         <v>39320</v>
       </c>
       <c r="B239" t="s">
@@ -12059,7 +12060,7 @@
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
-        <f>A239+1</f>
+        <f t="shared" si="3"/>
         <v>39321</v>
       </c>
       <c r="B240" t="s">
@@ -12101,7 +12102,7 @@
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
-        <f>A240+1</f>
+        <f t="shared" si="3"/>
         <v>39322</v>
       </c>
       <c r="B241" t="s">
@@ -12143,7 +12144,7 @@
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
-        <f>A241+1</f>
+        <f t="shared" si="3"/>
         <v>39323</v>
       </c>
       <c r="B242" t="s">
@@ -12185,7 +12186,7 @@
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
-        <f>A242+1</f>
+        <f t="shared" si="3"/>
         <v>39324</v>
       </c>
       <c r="B243" t="s">
@@ -12227,7 +12228,7 @@
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
-        <f>A243+1</f>
+        <f t="shared" si="3"/>
         <v>39325</v>
       </c>
       <c r="B244" t="s">
@@ -12269,7 +12270,7 @@
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
-        <f>A244+1</f>
+        <f t="shared" si="3"/>
         <v>39326</v>
       </c>
       <c r="B245" t="s">
@@ -12311,7 +12312,7 @@
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
-        <f>A245+1</f>
+        <f t="shared" si="3"/>
         <v>39327</v>
       </c>
       <c r="B246" t="s">
@@ -12353,7 +12354,7 @@
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
-        <f>A246+1</f>
+        <f t="shared" si="3"/>
         <v>39328</v>
       </c>
       <c r="B247" t="s">
@@ -12395,7 +12396,7 @@
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
-        <f>A247+1</f>
+        <f t="shared" si="3"/>
         <v>39329</v>
       </c>
       <c r="B248" t="s">
@@ -12437,7 +12438,7 @@
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
-        <f>A248+1</f>
+        <f t="shared" si="3"/>
         <v>39330</v>
       </c>
       <c r="B249" t="s">
@@ -12479,7 +12480,7 @@
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
-        <f>A249+1</f>
+        <f t="shared" si="3"/>
         <v>39331</v>
       </c>
       <c r="B250" t="s">
@@ -12521,7 +12522,7 @@
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
-        <f>A250+1</f>
+        <f t="shared" si="3"/>
         <v>39332</v>
       </c>
       <c r="B251" t="s">
@@ -12563,7 +12564,7 @@
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
-        <f>A251+1</f>
+        <f t="shared" si="3"/>
         <v>39333</v>
       </c>
       <c r="B252" t="s">
@@ -12605,7 +12606,7 @@
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
-        <f>A252+1</f>
+        <f t="shared" si="3"/>
         <v>39334</v>
       </c>
       <c r="B253" t="s">
@@ -12647,7 +12648,7 @@
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
-        <f>A253+1</f>
+        <f t="shared" si="3"/>
         <v>39335</v>
       </c>
       <c r="B254" t="s">
@@ -12689,7 +12690,7 @@
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
-        <f>A254+1</f>
+        <f t="shared" si="3"/>
         <v>39336</v>
       </c>
       <c r="B255" t="s">
@@ -12731,7 +12732,7 @@
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
-        <f>A255+1</f>
+        <f t="shared" si="3"/>
         <v>39337</v>
       </c>
       <c r="B256" t="s">
@@ -12773,7 +12774,7 @@
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
-        <f>A256+1</f>
+        <f t="shared" si="3"/>
         <v>39338</v>
       </c>
       <c r="B257" t="s">
@@ -12815,7 +12816,7 @@
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
-        <f>A257+1</f>
+        <f t="shared" si="3"/>
         <v>39339</v>
       </c>
       <c r="B258" t="s">
@@ -12857,7 +12858,7 @@
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
-        <f>A258+1</f>
+        <f t="shared" ref="A259:A322" si="4">A258+1</f>
         <v>39340</v>
       </c>
       <c r="B259" t="s">
@@ -12899,7 +12900,7 @@
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
-        <f>A259+1</f>
+        <f t="shared" si="4"/>
         <v>39341</v>
       </c>
       <c r="B260" t="s">
@@ -12941,7 +12942,7 @@
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
-        <f>A260+1</f>
+        <f t="shared" si="4"/>
         <v>39342</v>
       </c>
       <c r="B261" t="s">
@@ -12983,7 +12984,7 @@
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
-        <f>A261+1</f>
+        <f t="shared" si="4"/>
         <v>39343</v>
       </c>
       <c r="B262" t="s">
@@ -13025,7 +13026,7 @@
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
-        <f>A262+1</f>
+        <f t="shared" si="4"/>
         <v>39344</v>
       </c>
       <c r="B263" t="s">
@@ -13067,7 +13068,7 @@
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
-        <f>A263+1</f>
+        <f t="shared" si="4"/>
         <v>39345</v>
       </c>
       <c r="B264" t="s">
@@ -13109,7 +13110,7 @@
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
-        <f>A264+1</f>
+        <f t="shared" si="4"/>
         <v>39346</v>
       </c>
       <c r="B265" t="s">
@@ -13151,7 +13152,7 @@
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
-        <f>A265+1</f>
+        <f t="shared" si="4"/>
         <v>39347</v>
       </c>
       <c r="B266" t="s">
@@ -13193,7 +13194,7 @@
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
-        <f>A266+1</f>
+        <f t="shared" si="4"/>
         <v>39348</v>
       </c>
       <c r="B267" t="s">
@@ -13235,7 +13236,7 @@
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
-        <f>A267+1</f>
+        <f t="shared" si="4"/>
         <v>39349</v>
       </c>
       <c r="B268" t="s">
@@ -13277,7 +13278,7 @@
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
-        <f>A268+1</f>
+        <f t="shared" si="4"/>
         <v>39350</v>
       </c>
       <c r="B269" t="s">
@@ -13319,7 +13320,7 @@
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
-        <f>A269+1</f>
+        <f t="shared" si="4"/>
         <v>39351</v>
       </c>
       <c r="B270" t="s">
@@ -13361,7 +13362,7 @@
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
-        <f>A270+1</f>
+        <f t="shared" si="4"/>
         <v>39352</v>
       </c>
       <c r="B271" t="s">
@@ -13403,7 +13404,7 @@
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
-        <f>A271+1</f>
+        <f t="shared" si="4"/>
         <v>39353</v>
       </c>
       <c r="B272" t="s">
@@ -13445,7 +13446,7 @@
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
-        <f>A272+1</f>
+        <f t="shared" si="4"/>
         <v>39354</v>
       </c>
       <c r="B273" t="s">
@@ -13487,7 +13488,7 @@
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
-        <f>A273+1</f>
+        <f t="shared" si="4"/>
         <v>39355</v>
       </c>
       <c r="B274" t="s">
@@ -13529,7 +13530,7 @@
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
-        <f>A274+1</f>
+        <f t="shared" si="4"/>
         <v>39356</v>
       </c>
       <c r="B275" t="s">
@@ -13571,7 +13572,7 @@
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
-        <f>A275+1</f>
+        <f t="shared" si="4"/>
         <v>39357</v>
       </c>
       <c r="B276" t="s">
@@ -13613,7 +13614,7 @@
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
-        <f>A276+1</f>
+        <f t="shared" si="4"/>
         <v>39358</v>
       </c>
       <c r="B277" t="s">
@@ -13655,7 +13656,7 @@
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
-        <f>A277+1</f>
+        <f t="shared" si="4"/>
         <v>39359</v>
       </c>
       <c r="B278" t="s">
@@ -13697,7 +13698,7 @@
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
-        <f>A278+1</f>
+        <f t="shared" si="4"/>
         <v>39360</v>
       </c>
       <c r="B279" t="s">
@@ -13739,7 +13740,7 @@
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
-        <f>A279+1</f>
+        <f t="shared" si="4"/>
         <v>39361</v>
       </c>
       <c r="B280" t="s">
@@ -13781,7 +13782,7 @@
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
-        <f>A280+1</f>
+        <f t="shared" si="4"/>
         <v>39362</v>
       </c>
       <c r="B281" t="s">
@@ -13823,7 +13824,7 @@
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
-        <f>A281+1</f>
+        <f t="shared" si="4"/>
         <v>39363</v>
       </c>
       <c r="B282" t="s">
@@ -13865,7 +13866,7 @@
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
-        <f>A282+1</f>
+        <f t="shared" si="4"/>
         <v>39364</v>
       </c>
       <c r="B283" t="s">
@@ -13907,7 +13908,7 @@
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
-        <f>A283+1</f>
+        <f t="shared" si="4"/>
         <v>39365</v>
       </c>
       <c r="B284" t="s">
@@ -13949,7 +13950,7 @@
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
-        <f>A284+1</f>
+        <f t="shared" si="4"/>
         <v>39366</v>
       </c>
       <c r="B285" t="s">
@@ -13991,7 +13992,7 @@
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
-        <f>A285+1</f>
+        <f t="shared" si="4"/>
         <v>39367</v>
       </c>
       <c r="B286" t="s">
@@ -14033,7 +14034,7 @@
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
-        <f>A286+1</f>
+        <f t="shared" si="4"/>
         <v>39368</v>
       </c>
       <c r="B287" t="s">
@@ -14075,7 +14076,7 @@
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
-        <f>A287+1</f>
+        <f t="shared" si="4"/>
         <v>39369</v>
       </c>
       <c r="B288" t="s">
@@ -14117,7 +14118,7 @@
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
-        <f>A288+1</f>
+        <f t="shared" si="4"/>
         <v>39370</v>
       </c>
       <c r="B289" t="s">
@@ -14159,7 +14160,7 @@
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
-        <f>A289+1</f>
+        <f t="shared" si="4"/>
         <v>39371</v>
       </c>
       <c r="B290" t="s">
@@ -14201,7 +14202,7 @@
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
-        <f>A290+1</f>
+        <f t="shared" si="4"/>
         <v>39372</v>
       </c>
       <c r="B291" t="s">
@@ -14243,7 +14244,7 @@
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
-        <f>A291+1</f>
+        <f t="shared" si="4"/>
         <v>39373</v>
       </c>
       <c r="B292" t="s">
@@ -14285,7 +14286,7 @@
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
-        <f>A292+1</f>
+        <f t="shared" si="4"/>
         <v>39374</v>
       </c>
       <c r="B293" t="s">
@@ -14327,7 +14328,7 @@
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
-        <f>A293+1</f>
+        <f t="shared" si="4"/>
         <v>39375</v>
       </c>
       <c r="B294" t="s">
@@ -14369,7 +14370,7 @@
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
-        <f>A294+1</f>
+        <f t="shared" si="4"/>
         <v>39376</v>
       </c>
       <c r="B295" t="s">
@@ -14411,7 +14412,7 @@
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
-        <f>A295+1</f>
+        <f t="shared" si="4"/>
         <v>39377</v>
       </c>
       <c r="B296" t="s">
@@ -14453,7 +14454,7 @@
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
-        <f>A296+1</f>
+        <f t="shared" si="4"/>
         <v>39378</v>
       </c>
       <c r="B297" t="s">
@@ -14495,7 +14496,7 @@
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
-        <f>A297+1</f>
+        <f t="shared" si="4"/>
         <v>39379</v>
       </c>
       <c r="B298" t="s">
@@ -14537,7 +14538,7 @@
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
-        <f>A298+1</f>
+        <f t="shared" si="4"/>
         <v>39380</v>
       </c>
       <c r="B299" t="s">
@@ -14579,7 +14580,7 @@
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
-        <f>A299+1</f>
+        <f t="shared" si="4"/>
         <v>39381</v>
       </c>
       <c r="B300" t="s">
@@ -14621,7 +14622,7 @@
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
-        <f>A300+1</f>
+        <f t="shared" si="4"/>
         <v>39382</v>
       </c>
       <c r="B301" t="s">
@@ -14663,7 +14664,7 @@
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
-        <f>A301+1</f>
+        <f t="shared" si="4"/>
         <v>39383</v>
       </c>
       <c r="B302" t="s">
@@ -14705,7 +14706,7 @@
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
-        <f>A302+1</f>
+        <f t="shared" si="4"/>
         <v>39384</v>
       </c>
       <c r="B303" t="s">
@@ -14747,7 +14748,7 @@
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
-        <f>A303+1</f>
+        <f t="shared" si="4"/>
         <v>39385</v>
       </c>
       <c r="B304" t="s">
@@ -14789,7 +14790,7 @@
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
-        <f>A304+1</f>
+        <f t="shared" si="4"/>
         <v>39386</v>
       </c>
       <c r="B305" t="s">
@@ -14831,7 +14832,7 @@
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
-        <f>A305+1</f>
+        <f t="shared" si="4"/>
         <v>39387</v>
       </c>
       <c r="B306" t="s">
@@ -14873,7 +14874,7 @@
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
-        <f>A306+1</f>
+        <f t="shared" si="4"/>
         <v>39388</v>
       </c>
       <c r="B307" t="s">
@@ -14915,7 +14916,7 @@
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
-        <f>A307+1</f>
+        <f t="shared" si="4"/>
         <v>39389</v>
       </c>
       <c r="B308" t="s">
@@ -14957,7 +14958,7 @@
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
-        <f>A308+1</f>
+        <f t="shared" si="4"/>
         <v>39390</v>
       </c>
       <c r="B309" t="s">
@@ -14999,7 +15000,7 @@
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
-        <f>A309+1</f>
+        <f t="shared" si="4"/>
         <v>39391</v>
       </c>
       <c r="B310" t="s">
@@ -15041,7 +15042,7 @@
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
-        <f>A310+1</f>
+        <f t="shared" si="4"/>
         <v>39392</v>
       </c>
       <c r="B311" t="s">
@@ -15083,7 +15084,7 @@
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
-        <f>A311+1</f>
+        <f t="shared" si="4"/>
         <v>39393</v>
       </c>
       <c r="B312" t="s">
@@ -15125,7 +15126,7 @@
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
-        <f>A312+1</f>
+        <f t="shared" si="4"/>
         <v>39394</v>
       </c>
       <c r="B313" t="s">
@@ -15167,7 +15168,7 @@
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
-        <f>A313+1</f>
+        <f t="shared" si="4"/>
         <v>39395</v>
       </c>
       <c r="B314" t="s">
@@ -15209,7 +15210,7 @@
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
-        <f>A314+1</f>
+        <f t="shared" si="4"/>
         <v>39396</v>
       </c>
       <c r="B315" t="s">
@@ -15251,7 +15252,7 @@
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
-        <f>A315+1</f>
+        <f t="shared" si="4"/>
         <v>39397</v>
       </c>
       <c r="B316" t="s">
@@ -15293,7 +15294,7 @@
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
-        <f>A316+1</f>
+        <f t="shared" si="4"/>
         <v>39398</v>
       </c>
       <c r="B317" t="s">
@@ -15335,7 +15336,7 @@
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
-        <f>A317+1</f>
+        <f t="shared" si="4"/>
         <v>39399</v>
       </c>
       <c r="B318" t="s">
@@ -15377,7 +15378,7 @@
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
-        <f>A318+1</f>
+        <f t="shared" si="4"/>
         <v>39400</v>
       </c>
       <c r="B319" t="s">
@@ -15419,7 +15420,7 @@
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
-        <f>A319+1</f>
+        <f t="shared" si="4"/>
         <v>39401</v>
       </c>
       <c r="B320" t="s">
@@ -15461,7 +15462,7 @@
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
-        <f>A320+1</f>
+        <f t="shared" si="4"/>
         <v>39402</v>
       </c>
       <c r="B321" t="s">
@@ -15503,7 +15504,7 @@
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
-        <f>A321+1</f>
+        <f t="shared" si="4"/>
         <v>39403</v>
       </c>
       <c r="B322" t="s">
@@ -15545,7 +15546,7 @@
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
-        <f>A322+1</f>
+        <f t="shared" ref="A323:A366" si="5">A322+1</f>
         <v>39404</v>
       </c>
       <c r="B323" t="s">
@@ -15587,7 +15588,7 @@
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
-        <f>A323+1</f>
+        <f t="shared" si="5"/>
         <v>39405</v>
       </c>
       <c r="B324" t="s">
@@ -15629,7 +15630,7 @@
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
-        <f>A324+1</f>
+        <f t="shared" si="5"/>
         <v>39406</v>
       </c>
       <c r="B325" t="s">
@@ -15671,7 +15672,7 @@
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
-        <f>A325+1</f>
+        <f t="shared" si="5"/>
         <v>39407</v>
       </c>
       <c r="B326" t="s">
@@ -15713,7 +15714,7 @@
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
-        <f>A326+1</f>
+        <f t="shared" si="5"/>
         <v>39408</v>
       </c>
       <c r="B327" t="s">
@@ -15755,7 +15756,7 @@
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
-        <f>A327+1</f>
+        <f t="shared" si="5"/>
         <v>39409</v>
       </c>
       <c r="B328" t="s">
@@ -15797,7 +15798,7 @@
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
-        <f>A328+1</f>
+        <f t="shared" si="5"/>
         <v>39410</v>
       </c>
       <c r="B329" t="s">
@@ -15839,7 +15840,7 @@
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
-        <f>A329+1</f>
+        <f t="shared" si="5"/>
         <v>39411</v>
       </c>
       <c r="B330" t="s">
@@ -15881,7 +15882,7 @@
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
-        <f>A330+1</f>
+        <f t="shared" si="5"/>
         <v>39412</v>
       </c>
       <c r="B331" t="s">
@@ -15923,7 +15924,7 @@
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
-        <f>A331+1</f>
+        <f t="shared" si="5"/>
         <v>39413</v>
       </c>
       <c r="B332" t="s">
@@ -15965,7 +15966,7 @@
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
-        <f>A332+1</f>
+        <f t="shared" si="5"/>
         <v>39414</v>
       </c>
       <c r="B333" t="s">
@@ -16007,7 +16008,7 @@
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
-        <f>A333+1</f>
+        <f t="shared" si="5"/>
         <v>39415</v>
       </c>
       <c r="B334" t="s">
@@ -16049,7 +16050,7 @@
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
-        <f>A334+1</f>
+        <f t="shared" si="5"/>
         <v>39416</v>
       </c>
       <c r="B335" t="s">
@@ -16091,7 +16092,7 @@
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
-        <f>A335+1</f>
+        <f t="shared" si="5"/>
         <v>39417</v>
       </c>
       <c r="B336" t="s">
@@ -16133,7 +16134,7 @@
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
-        <f>A336+1</f>
+        <f t="shared" si="5"/>
         <v>39418</v>
       </c>
       <c r="B337" t="s">
@@ -16175,7 +16176,7 @@
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
-        <f>A337+1</f>
+        <f t="shared" si="5"/>
         <v>39419</v>
       </c>
       <c r="B338" t="s">
@@ -16217,7 +16218,7 @@
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
-        <f>A338+1</f>
+        <f t="shared" si="5"/>
         <v>39420</v>
       </c>
       <c r="B339" t="s">
@@ -16259,7 +16260,7 @@
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
-        <f>A339+1</f>
+        <f t="shared" si="5"/>
         <v>39421</v>
       </c>
       <c r="B340" t="s">
@@ -16301,7 +16302,7 @@
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
-        <f>A340+1</f>
+        <f t="shared" si="5"/>
         <v>39422</v>
       </c>
       <c r="B341" t="s">
@@ -16343,7 +16344,7 @@
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
-        <f>A341+1</f>
+        <f t="shared" si="5"/>
         <v>39423</v>
       </c>
       <c r="B342" t="s">
@@ -16385,7 +16386,7 @@
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
-        <f>A342+1</f>
+        <f t="shared" si="5"/>
         <v>39424</v>
       </c>
       <c r="B343" t="s">
@@ -16427,7 +16428,7 @@
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
-        <f>A343+1</f>
+        <f t="shared" si="5"/>
         <v>39425</v>
       </c>
       <c r="B344" t="s">
@@ -16469,7 +16470,7 @@
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
-        <f>A344+1</f>
+        <f t="shared" si="5"/>
         <v>39426</v>
       </c>
       <c r="B345" t="s">
@@ -16511,7 +16512,7 @@
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
-        <f>A345+1</f>
+        <f t="shared" si="5"/>
         <v>39427</v>
       </c>
       <c r="B346" t="s">
@@ -16553,7 +16554,7 @@
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
-        <f>A346+1</f>
+        <f t="shared" si="5"/>
         <v>39428</v>
       </c>
       <c r="B347" t="s">
@@ -16595,7 +16596,7 @@
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
-        <f>A347+1</f>
+        <f t="shared" si="5"/>
         <v>39429</v>
       </c>
       <c r="B348" t="s">
@@ -16637,7 +16638,7 @@
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
-        <f>A348+1</f>
+        <f t="shared" si="5"/>
         <v>39430</v>
       </c>
       <c r="B349" t="s">
@@ -16679,7 +16680,7 @@
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
-        <f>A349+1</f>
+        <f t="shared" si="5"/>
         <v>39431</v>
       </c>
       <c r="B350" t="s">
@@ -16721,7 +16722,7 @@
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
-        <f>A350+1</f>
+        <f t="shared" si="5"/>
         <v>39432</v>
       </c>
       <c r="B351" t="s">
@@ -16763,7 +16764,7 @@
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
-        <f>A351+1</f>
+        <f t="shared" si="5"/>
         <v>39433</v>
       </c>
       <c r="B352" t="s">
@@ -16805,7 +16806,7 @@
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
-        <f>A352+1</f>
+        <f t="shared" si="5"/>
         <v>39434</v>
       </c>
       <c r="B353" t="s">
@@ -16847,7 +16848,7 @@
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
-        <f>A353+1</f>
+        <f t="shared" si="5"/>
         <v>39435</v>
       </c>
       <c r="B354" t="s">
@@ -16889,7 +16890,7 @@
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
-        <f>A354+1</f>
+        <f t="shared" si="5"/>
         <v>39436</v>
       </c>
       <c r="B355" t="s">
@@ -16931,7 +16932,7 @@
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
-        <f>A355+1</f>
+        <f t="shared" si="5"/>
         <v>39437</v>
       </c>
       <c r="B356" t="s">
@@ -16973,7 +16974,7 @@
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
-        <f>A356+1</f>
+        <f t="shared" si="5"/>
         <v>39438</v>
       </c>
       <c r="B357" t="s">
@@ -17015,7 +17016,7 @@
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
-        <f>A357+1</f>
+        <f t="shared" si="5"/>
         <v>39439</v>
       </c>
       <c r="B358" t="s">
@@ -17057,7 +17058,7 @@
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
-        <f>A358+1</f>
+        <f t="shared" si="5"/>
         <v>39440</v>
       </c>
       <c r="B359" t="s">
@@ -17099,7 +17100,7 @@
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A360" s="1">
-        <f>A359+1</f>
+        <f t="shared" si="5"/>
         <v>39441</v>
       </c>
       <c r="B360" t="s">
@@ -17141,7 +17142,7 @@
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A361" s="1">
-        <f>A360+1</f>
+        <f t="shared" si="5"/>
         <v>39442</v>
       </c>
       <c r="B361" t="s">
@@ -17183,7 +17184,7 @@
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
-        <f>A361+1</f>
+        <f t="shared" si="5"/>
         <v>39443</v>
       </c>
       <c r="B362" t="s">
@@ -17225,7 +17226,7 @@
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
-        <f>A362+1</f>
+        <f t="shared" si="5"/>
         <v>39444</v>
       </c>
       <c r="B363" t="s">
@@ -17267,7 +17268,7 @@
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
-        <f>A363+1</f>
+        <f t="shared" si="5"/>
         <v>39445</v>
       </c>
       <c r="B364" t="s">
@@ -17309,7 +17310,7 @@
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
-        <f>A364+1</f>
+        <f t="shared" si="5"/>
         <v>39446</v>
       </c>
       <c r="B365" t="s">
@@ -17351,7 +17352,7 @@
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A366" s="1">
-        <f>A365+1</f>
+        <f t="shared" si="5"/>
         <v>39447</v>
       </c>
       <c r="B366" t="s">
